--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1072470.288315986</v>
+        <v>998629.0953803434</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298021</v>
+        <v>405687.0519298025</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958493</v>
+        <v>11773978.35958494</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>70.34400780127524</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.9298661881966</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -761,7 +761,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>111.1070543449885</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,58 +904,58 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>82.37559015745698</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U9" t="n">
-        <v>10.15822114686772</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>99.07094183176289</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>73.20092334033714</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393327</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>70.7895772424515</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207136</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>135.2757799528306</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
-        <v>51.12519878778958</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385096</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.0974007501703</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>228.2062988327025</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>105.0817495738966</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>106.1118769902309</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>141.9091215224088</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T15" t="n">
         <v>197.9863995095175</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>58.91178448174918</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385096</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.0974007501704</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>193.8209438199394</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>244.4441612902875</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393325</v>
+        <v>86.42041023393334</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379247</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>204.3940236896667</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>154.1033252695463</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>70.7895772424515</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207134</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S18" t="n">
-        <v>161.6448423772186</v>
+        <v>76.36857062854568</v>
       </c>
       <c r="T18" t="n">
         <v>197.9863995095175</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385095</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>106.6756461311202</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>254.3342481243825</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393327</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.569735475989692</v>
       </c>
       <c r="V20" t="n">
-        <v>70.36386261994456</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207136</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
-        <v>132.9332591811872</v>
+        <v>140.7198448751459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>67.38524054789497</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2283,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.80280525966067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>340.0237825764893</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.55249764492836</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>234.4871813790489</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>134.8122206876834</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>68.90297685032003</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>54.47555601903365</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>223.7650738816334</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>88.70695541093667</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>236.7139500600953</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>163.3224055697214</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>334.5817096732201</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,7 +3125,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>208.2793294336574</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>117.586430972754</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>250.3969541190186</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3435,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>122.9755501377539</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>142.567753130208</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>66.99070336972517</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>24.25641376481833</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2114886365804</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>284.5615160058692</v>
       </c>
       <c r="H41" t="n">
-        <v>131.5077074825216</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>201.3302879382938</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>216.6993815150877</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>221.0021786982958</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>142.9299904103435</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.33569644483418</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>333.7844730889342</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W2" t="n">
-        <v>333.7844730889342</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X2" t="n">
-        <v>333.7844730889342</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y2" t="n">
-        <v>90.33569644483418</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.9057755225589</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="C3" t="n">
-        <v>667.4527462414319</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>678.4104631380844</v>
       </c>
     </row>
     <row r="4">
@@ -4506,16 +4506,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C5" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V5" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W5" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X5" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y5" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
         <v>19.28114311021272</v>
@@ -4895,13 +4895,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U9" t="n">
-        <v>953.7963260693557</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V9" t="n">
-        <v>718.6442178376129</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W9" t="n">
-        <v>718.6442178376129</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>718.6442178376129</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4950,19 +4950,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2022.100492129413</v>
+        <v>560.7369787054674</v>
       </c>
       <c r="C11" t="n">
-        <v>2022.100492129413</v>
+        <v>560.7369787054674</v>
       </c>
       <c r="D11" t="n">
-        <v>1663.834793522662</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="E11" t="n">
-        <v>1278.046540924418</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="F11" t="n">
-        <v>867.0606361348105</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G11" t="n">
-        <v>448.5831925612662</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H11" t="n">
-        <v>116.1282033224022</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J11" t="n">
-        <v>115.229088285623</v>
+        <v>115.2290882856228</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953289</v>
+        <v>345.4437346953287</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803417</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.883192613822</v>
+        <v>1075.883192613821</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170709</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755288</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R11" t="n">
-        <v>2022.100492129413</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>2022.100492129413</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T11" t="n">
-        <v>2022.100492129413</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U11" t="n">
-        <v>2022.100492129413</v>
+        <v>1634.707853294964</v>
       </c>
       <c r="V11" t="n">
-        <v>2022.100492129413</v>
+        <v>1303.644965951393</v>
       </c>
       <c r="W11" t="n">
-        <v>2022.100492129413</v>
+        <v>950.8763106812792</v>
       </c>
       <c r="X11" t="n">
-        <v>2022.100492129413</v>
+        <v>950.8763106812792</v>
       </c>
       <c r="Y11" t="n">
-        <v>2022.100492129413</v>
+        <v>560.7369787054674</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.1338413064683</v>
+        <v>671.3473286369498</v>
       </c>
       <c r="C12" t="n">
-        <v>814.6808120253413</v>
+        <v>496.8942993558228</v>
       </c>
       <c r="D12" t="n">
-        <v>665.74640236409</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E12" t="n">
-        <v>506.5089473586346</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F12" t="n">
-        <v>359.9743893855196</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G12" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H12" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147169</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K12" t="n">
-        <v>303.7504955284377</v>
+        <v>253.9410299829669</v>
       </c>
       <c r="L12" t="n">
-        <v>649.8831383448792</v>
+        <v>600.0736727994082</v>
       </c>
       <c r="M12" t="n">
-        <v>1105.782828129935</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N12" t="n">
-        <v>1310.841828599076</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O12" t="n">
-        <v>1686.892462576446</v>
+        <v>1915.697007951091</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875405</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525233</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S12" t="n">
-        <v>1878.839948962386</v>
+        <v>1972.751633827495</v>
       </c>
       <c r="T12" t="n">
-        <v>1878.839948962386</v>
+        <v>1972.751633827495</v>
       </c>
       <c r="U12" t="n">
-        <v>1878.839948962386</v>
+        <v>1744.563929587449</v>
       </c>
       <c r="V12" t="n">
-        <v>1827.198334025225</v>
+        <v>1509.411821355706</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.960977297023</v>
+        <v>1255.174464627504</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.10947709149</v>
+        <v>1047.322964421972</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.349178326536</v>
+        <v>839.5626656570178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H13" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701805</v>
+        <v>72.25456008701796</v>
       </c>
       <c r="L13" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503601</v>
       </c>
       <c r="O13" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871616</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="Q13" t="n">
-        <v>478.6740683752737</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="R13" t="n">
-        <v>345.2423504458087</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="S13" t="n">
-        <v>345.2423504458087</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="T13" t="n">
-        <v>345.2423504458087</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="U13" t="n">
-        <v>345.2423504458087</v>
+        <v>296.8723649218879</v>
       </c>
       <c r="V13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="W13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>411.1503936564127</v>
+        <v>1151.062313995753</v>
       </c>
       <c r="C14" t="n">
-        <v>42.18787671600104</v>
+        <v>1151.062313995753</v>
       </c>
       <c r="D14" t="n">
-        <v>42.18787671600104</v>
+        <v>1151.062313995753</v>
       </c>
       <c r="E14" t="n">
-        <v>42.18787671600104</v>
+        <v>1151.062313995753</v>
       </c>
       <c r="F14" t="n">
-        <v>42.18787671600104</v>
+        <v>740.0764092061459</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18787671600104</v>
+        <v>321.5989656326016</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600104</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953287</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803415</v>
+        <v>683.3219880803406</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.883192613822</v>
+        <v>1075.88319261382</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R14" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>2002.210121668506</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T14" t="n">
-        <v>1781.327015363065</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U14" t="n">
-        <v>1527.524139163418</v>
+        <v>1855.590959600404</v>
       </c>
       <c r="V14" t="n">
-        <v>1527.524139163418</v>
+        <v>1524.528072256833</v>
       </c>
       <c r="W14" t="n">
-        <v>1174.755483893304</v>
+        <v>1524.528072256833</v>
       </c>
       <c r="X14" t="n">
-        <v>801.2897256322244</v>
+        <v>1151.062313995753</v>
       </c>
       <c r="Y14" t="n">
-        <v>411.1503936564127</v>
+        <v>1151.062313995753</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.1338413064683</v>
+        <v>630.5098759087952</v>
       </c>
       <c r="C15" t="n">
-        <v>814.6808120253413</v>
+        <v>456.0568466276681</v>
       </c>
       <c r="D15" t="n">
-        <v>665.74640236409</v>
+        <v>456.0568466276681</v>
       </c>
       <c r="E15" t="n">
-        <v>506.5089473586346</v>
+        <v>296.8193916222126</v>
       </c>
       <c r="F15" t="n">
-        <v>359.9743893855196</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="G15" t="n">
-        <v>221.7894571263213</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H15" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147167</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K15" t="n">
-        <v>303.7504955284377</v>
+        <v>253.9410299829669</v>
       </c>
       <c r="L15" t="n">
-        <v>649.8831383448791</v>
+        <v>600.0736727994082</v>
       </c>
       <c r="M15" t="n">
-        <v>1105.782828129935</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N15" t="n">
-        <v>1589.455839519192</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O15" t="n">
-        <v>1965.506473496562</v>
+        <v>1824.583116501091</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875405</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525232</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962385</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T15" t="n">
-        <v>1678.85368683156</v>
+        <v>1678.853686831558</v>
       </c>
       <c r="U15" t="n">
-        <v>1678.85368683156</v>
+        <v>1678.853686831558</v>
       </c>
       <c r="V15" t="n">
-        <v>1678.85368683156</v>
+        <v>1443.701578599816</v>
       </c>
       <c r="W15" t="n">
-        <v>1424.616330103358</v>
+        <v>1189.464221871614</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.10947709149</v>
+        <v>981.6127216660811</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.349178326536</v>
+        <v>773.8524229011273</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="C16" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="D16" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="E16" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="F16" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G16" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H16" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701804</v>
+        <v>72.25456008701795</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503601</v>
       </c>
       <c r="O16" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871616</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="Q16" t="n">
-        <v>478.6740683752737</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="R16" t="n">
-        <v>345.2423504458087</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="S16" t="n">
-        <v>345.2423504458087</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="T16" t="n">
-        <v>345.2423504458087</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="U16" t="n">
-        <v>345.2423504458087</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V16" t="n">
-        <v>345.2423504458087</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W16" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="X16" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="Y16" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600101</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>289.1011709486147</v>
+        <v>818.9310188962959</v>
       </c>
       <c r="C17" t="n">
-        <v>289.1011709486147</v>
+        <v>818.9310188962959</v>
       </c>
       <c r="D17" t="n">
-        <v>289.1011709486147</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="E17" t="n">
-        <v>289.1011709486147</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="F17" t="n">
-        <v>42.18787671600104</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803413</v>
+        <v>683.3219880803406</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.883192613821</v>
+        <v>1075.88319261382</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129412</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="S17" t="n">
-        <v>1834.218536131508</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="T17" t="n">
-        <v>1613.335429826068</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="U17" t="n">
-        <v>1359.532553626421</v>
+        <v>1768.297615929764</v>
       </c>
       <c r="V17" t="n">
-        <v>1028.469666282851</v>
+        <v>1561.839006142222</v>
       </c>
       <c r="W17" t="n">
-        <v>675.7010110127364</v>
+        <v>1209.070350872108</v>
       </c>
       <c r="X17" t="n">
-        <v>675.7010110127364</v>
+        <v>1209.070350872108</v>
       </c>
       <c r="Y17" t="n">
-        <v>675.7010110127364</v>
+        <v>818.9310188962959</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.4493816410146</v>
+        <v>671.3473286369498</v>
       </c>
       <c r="C18" t="n">
-        <v>221.7894571263213</v>
+        <v>496.8942993558228</v>
       </c>
       <c r="D18" t="n">
-        <v>221.7894571263213</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E18" t="n">
-        <v>221.7894571263213</v>
+        <v>188.722434689116</v>
       </c>
       <c r="F18" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G18" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H18" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K18" t="n">
-        <v>253.9410299829671</v>
+        <v>253.9410299829669</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9597813494092</v>
+        <v>600.0736727994082</v>
       </c>
       <c r="M18" t="n">
-        <v>964.8594711344648</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N18" t="n">
-        <v>1448.532482523723</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.583116501093</v>
+        <v>1915.697007951091</v>
       </c>
       <c r="P18" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2042.117567525232</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S18" t="n">
-        <v>1878.839948962385</v>
+        <v>1964.977597193367</v>
       </c>
       <c r="T18" t="n">
-        <v>1678.85368683156</v>
+        <v>1764.991335062541</v>
       </c>
       <c r="U18" t="n">
-        <v>1450.665982591514</v>
+        <v>1536.803630822495</v>
       </c>
       <c r="V18" t="n">
-        <v>1215.513874359771</v>
+        <v>1301.651522590752</v>
       </c>
       <c r="W18" t="n">
-        <v>961.2765176315693</v>
+        <v>1047.414165862551</v>
       </c>
       <c r="X18" t="n">
-        <v>753.4250174260364</v>
+        <v>839.5626656570178</v>
       </c>
       <c r="Y18" t="n">
-        <v>545.6647186610826</v>
+        <v>839.5626656570178</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>370.9208904650512</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="C19" t="n">
-        <v>201.9847075371443</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="D19" t="n">
-        <v>201.9847075371443</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="E19" t="n">
-        <v>201.9847075371443</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="F19" t="n">
-        <v>201.9847075371443</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G19" t="n">
-        <v>201.9847075371443</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701805</v>
+        <v>72.25456008701795</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503601</v>
       </c>
       <c r="O19" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871616</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="Q19" t="n">
-        <v>478.6740683752737</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="R19" t="n">
-        <v>370.9208904650512</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="S19" t="n">
-        <v>370.9208904650512</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="T19" t="n">
-        <v>370.9208904650512</v>
+        <v>299.0911576497207</v>
       </c>
       <c r="U19" t="n">
-        <v>370.9208904650512</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="V19" t="n">
-        <v>370.9208904650512</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="W19" t="n">
-        <v>370.9208904650512</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="X19" t="n">
-        <v>370.9208904650512</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="Y19" t="n">
-        <v>370.9208904650512</v>
+        <v>42.18787671600101</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1377.374121846843</v>
+        <v>829.6278372299571</v>
       </c>
       <c r="C20" t="n">
-        <v>1377.374121846843</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="D20" t="n">
-        <v>1377.374121846843</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="E20" t="n">
-        <v>1377.374121846843</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="F20" t="n">
-        <v>966.3882170572355</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G20" t="n">
-        <v>547.9107734836912</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H20" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856228</v>
+        <v>115.2290882856224</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953287</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803413</v>
+        <v>683.3219880803407</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.883192613821</v>
+        <v>1075.88319261382</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R20" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S20" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T20" t="n">
-        <v>1801.217385823972</v>
+        <v>1888.51072949461</v>
       </c>
       <c r="U20" t="n">
-        <v>1801.217385823972</v>
+        <v>1886.925138104722</v>
       </c>
       <c r="V20" t="n">
-        <v>1730.142777116957</v>
+        <v>1555.862250761151</v>
       </c>
       <c r="W20" t="n">
-        <v>1377.374121846843</v>
+        <v>1203.093595491037</v>
       </c>
       <c r="X20" t="n">
-        <v>1377.374121846843</v>
+        <v>829.6278372299571</v>
       </c>
       <c r="Y20" t="n">
-        <v>1377.374121846843</v>
+        <v>829.6278372299571</v>
       </c>
     </row>
     <row r="21">
@@ -5816,61 +5816,61 @@
         <v>347.9598896945715</v>
       </c>
       <c r="E21" t="n">
-        <v>188.7224346891161</v>
+        <v>188.722434689116</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J21" t="n">
-        <v>91.99734226147169</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K21" t="n">
-        <v>162.8271385329679</v>
+        <v>253.9410299829669</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9597813494094</v>
+        <v>600.0736727994082</v>
       </c>
       <c r="M21" t="n">
-        <v>964.8594711344649</v>
+        <v>827.1688172098171</v>
       </c>
       <c r="N21" t="n">
-        <v>1448.532482523723</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O21" t="n">
-        <v>1824.583116501093</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P21" t="n">
-        <v>2109.393835800052</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525232</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S21" t="n">
-        <v>1878.839948962385</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T21" t="n">
-        <v>1878.839948962385</v>
+        <v>1678.853686831558</v>
       </c>
       <c r="U21" t="n">
-        <v>1744.563929587449</v>
+        <v>1536.712429381916</v>
       </c>
       <c r="V21" t="n">
-        <v>1509.411821355706</v>
+        <v>1301.560321150173</v>
       </c>
       <c r="W21" t="n">
-        <v>1255.174464627504</v>
+        <v>1047.322964421972</v>
       </c>
       <c r="X21" t="n">
         <v>1047.322964421972</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.1240596439079</v>
+        <v>260.370415671665</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600104</v>
+        <v>260.370415671665</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600104</v>
+        <v>110.2537762593293</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701804</v>
+        <v>72.25456008701795</v>
       </c>
       <c r="L22" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503601</v>
       </c>
       <c r="O22" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871616</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842141</v>
+        <v>478.6740683752732</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842141</v>
+        <v>478.6740683752732</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842141</v>
+        <v>260.370415671665</v>
       </c>
       <c r="T22" t="n">
-        <v>527.3837778842141</v>
+        <v>260.370415671665</v>
       </c>
       <c r="U22" t="n">
-        <v>238.1976003102318</v>
+        <v>260.370415671665</v>
       </c>
       <c r="V22" t="n">
-        <v>238.1976003102318</v>
+        <v>260.370415671665</v>
       </c>
       <c r="W22" t="n">
-        <v>238.1976003102318</v>
+        <v>260.370415671665</v>
       </c>
       <c r="X22" t="n">
-        <v>238.1976003102318</v>
+        <v>260.370415671665</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.1240596439079</v>
+        <v>260.370415671665</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2366.086203674652</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C23" t="n">
-        <v>1997.12368673424</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="D23" t="n">
-        <v>1638.85798812749</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="E23" t="n">
-        <v>1253.069735529245</v>
+        <v>808.38725284885</v>
       </c>
       <c r="F23" t="n">
-        <v>842.0838307396377</v>
+        <v>397.4013480592425</v>
       </c>
       <c r="G23" t="n">
-        <v>424.1200226378246</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>96.92530267382745</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
@@ -6025,16 +6025,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.086203674652</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>2366.086203674652</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="24">
@@ -6050,43 +6050,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>491.2732454397182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1791.109440255352</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C26" t="n">
-        <v>1422.14692331494</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.14692331494</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2177.709280319473</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2177.709280319473</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>2177.709280319473</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>2177.709280319473</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y26" t="n">
-        <v>2177.709280319473</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6405,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1392.984777118936</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1024.022260178524</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>665.7565615717738</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>279.9683089735295</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.723949158869</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2169.723949158869</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2169.723949158869</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>2169.723949158869</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1779.584617183058</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>325.5314024181542</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>325.5314024181542</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W31" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X31" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>381.1377017843616</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C32" t="n">
-        <v>381.1377017843616</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>381.1377017843616</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982757</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.109828622464</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6797,25 +6797,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2338.85283639173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2486.765929974124</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2486.765929974124</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2486.765929974124</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>2486.765929974124</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1199.13500546934</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="C35" t="n">
-        <v>830.1724885289281</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D35" t="n">
-        <v>471.9067899221776</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036444</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.723949158869</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V35" t="n">
-        <v>1838.661061815299</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W35" t="n">
-        <v>1585.734845533462</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X35" t="n">
-        <v>1585.734845533462</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y35" t="n">
-        <v>1585.734845533462</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="C37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F37" t="n">
-        <v>2519.585513306028</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>2350.585713044361</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>2192.837340476891</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065018</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2519.585513306028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="U37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="V37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="W37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="X37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="Y37" t="n">
-        <v>2519.585513306028</v>
+        <v>369.8327295799423</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>490.5728759019127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>121.610358961501</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>121.610358961501</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>121.610358961501</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>1993.54646147304</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W38" t="n">
-        <v>1640.777806202926</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X38" t="n">
-        <v>1267.312047941846</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y38" t="n">
-        <v>877.1727159660345</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7235,16 +7235,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,16 +7253,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981262</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083244</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>709.2075429298498</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C41" t="n">
-        <v>340.245025989438</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D41" t="n">
-        <v>340.245025989438</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E41" t="n">
-        <v>340.245025989438</v>
+        <v>752.3647613633752</v>
       </c>
       <c r="F41" t="n">
-        <v>340.245025989438</v>
+        <v>341.3788565737677</v>
       </c>
       <c r="G41" t="n">
-        <v>340.245025989438</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V41" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W41" t="n">
-        <v>1859.412473230863</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X41" t="n">
-        <v>1485.946714969783</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y41" t="n">
-        <v>1095.807382993971</v>
+        <v>2251.981069572903</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7502,13 +7502,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2493.785163807825</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>2204.611553462393</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>2204.611553462393</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W43" t="n">
-        <v>2204.611553462393</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>2204.611553462393</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>2204.611553462393</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2107.607341885688</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>2107.607341885688</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D44" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E44" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2497.746673861499</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2497.746673861499</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U44" t="n">
-        <v>2497.746673861499</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V44" t="n">
-        <v>2497.746673861499</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W44" t="n">
-        <v>2497.746673861499</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X44" t="n">
-        <v>2497.746673861499</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y44" t="n">
-        <v>2107.607341885688</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036444</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033753</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>197.91408048485</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520592</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509474</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033753</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>301.8280854888511</v>
       </c>
       <c r="P15" t="n">
-        <v>37.03447478123341</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509474</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033748</v>
+        <v>75.77844388033753</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>278.8061115155812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520587</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509464</v>
+        <v>70.99581912509474</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033753</v>
       </c>
       <c r="K21" t="n">
-        <v>122.1184117646293</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>234.5893613513671</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509466</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>294.9288839697323</v>
+        <v>174.9274946967228</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.60331746167078</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22640,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,10 +22676,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>89.05767434983314</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22746,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>256.7375800297467</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>29.85985407903948</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22950,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23038,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>249.0858643776907</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23153,10 +23153,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U9" t="n">
-        <v>215.7831609341071</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6120997889201</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>98.33430511320074</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.42041023393334</v>
       </c>
       <c r="S11" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>26.36906242438801</v>
       </c>
       <c r="T12" t="n">
         <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>181.6753883616357</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022415</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R13" t="n">
-        <v>24.8237807774743</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S13" t="n">
         <v>216.1206161765721</v>
@@ -23472,10 +23472,10 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2943157982424</v>
+        <v>58.08801696553994</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>224.0486897725787</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393327</v>
+        <v>86.42041023393334</v>
       </c>
       <c r="S14" t="n">
-        <v>79.89125944769386</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>24.62406212745853</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23633,13 +23633,13 @@
         <v>225.9058271976456</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>146.8612007217283</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>167.537897457236</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022415</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R16" t="n">
-        <v>24.82378077747424</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S16" t="n">
         <v>216.1206161765721</v>
@@ -23709,13 +23709,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830296</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>162.431884451424</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>329.1304393464753</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>123.3582347804682</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>18.60517371876941</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.27627174867297</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,13 +23907,13 @@
         <v>167.537897457236</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I19" t="n">
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022414</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R19" t="n">
-        <v>50.24553539652439</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S19" t="n">
         <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>31.9600676738599</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.42041023393334</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379247</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>249.6951119616607</v>
       </c>
       <c r="V20" t="n">
-        <v>257.3883958501904</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24068,7 +24068,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>70.7895772424515</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>92.97256801645835</v>
+        <v>85.18598232249965</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>79.0487220986742</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022414</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385095</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>191.7818480924341</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>73.76038744430571</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>109.3788185999329</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>17.65046194477912</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>230.4606710833241</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>182.3211906579693</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>231.8063182229441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>183.110971860078</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,10 +24733,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>78.60284684811424</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24897,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>15.42369326373267</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>219.4114360937592</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>14.65925904419294</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,19 +25125,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>3.866209516361494</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>247.6864607982536</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>98.84401459839438</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25323,19 +25323,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>11.99007165458436</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>82.46735232787626</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>339.8853423719863</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>303.4958447053166</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.37316471551443</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>129.2226540149258</v>
       </c>
       <c r="H41" t="n">
-        <v>192.4150652818356</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>23.70481751979042</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>35.43826180874035</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727118</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.48572239862798</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>96.44405126592677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26079,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636944.0852419097</v>
+        <v>636944.0852419096</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>636944.0852419097</v>
+        <v>636944.0852419096</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636944.0852419097</v>
+        <v>636944.0852419094</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>636944.0852419096</v>
+        <v>636944.0852419095</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="15">
@@ -26319,40 +26319,40 @@
         <v>166160.6725313324</v>
       </c>
       <c r="D2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
-        <v>247828.6760862712</v>
+        <v>247828.6760862711</v>
       </c>
       <c r="F2" t="n">
-        <v>247828.6760862712</v>
+        <v>247828.676086271</v>
       </c>
       <c r="G2" t="n">
-        <v>247828.6760862712</v>
+        <v>247828.6760862711</v>
       </c>
       <c r="H2" t="n">
-        <v>247828.6760862712</v>
+        <v>247828.6760862711</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157575</v>
       </c>
       <c r="M2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="O2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157573</v>
       </c>
       <c r="P2" t="n">
         <v>289152.6100157574</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134257</v>
+        <v>287351.7100134254</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.701511692</v>
+        <v>134288.7015116923</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.6205187109</v>
+        <v>71355.6205187108</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.1345973064</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20195.28259504212</v>
+        <v>7977.271975001711</v>
       </c>
       <c r="C6" t="n">
-        <v>100964.7141265899</v>
+        <v>88746.70350654935</v>
       </c>
       <c r="D6" t="n">
-        <v>100964.7141265898</v>
+        <v>88746.70350654944</v>
       </c>
       <c r="E6" t="n">
-        <v>-94835.32692741425</v>
+        <v>-102969.9373697076</v>
       </c>
       <c r="F6" t="n">
-        <v>192516.3830860115</v>
+        <v>184381.7726437178</v>
       </c>
       <c r="G6" t="n">
-        <v>192516.3830860115</v>
+        <v>184381.7726437178</v>
       </c>
       <c r="H6" t="n">
-        <v>192516.3830860115</v>
+        <v>184381.7726437179</v>
       </c>
       <c r="I6" t="n">
-        <v>87403.50287099283</v>
+        <v>81335.08912517334</v>
       </c>
       <c r="J6" t="n">
-        <v>158632.2617835783</v>
+        <v>152563.8480377592</v>
       </c>
       <c r="K6" t="n">
-        <v>221692.2043826846</v>
+        <v>215623.7906368655</v>
       </c>
       <c r="L6" t="n">
-        <v>221692.2043826848</v>
+        <v>215623.7906368656</v>
       </c>
       <c r="M6" t="n">
-        <v>150336.5838639738</v>
+        <v>144268.1701181546</v>
       </c>
       <c r="N6" t="n">
-        <v>221692.2043826847</v>
+        <v>215623.7906368656</v>
       </c>
       <c r="O6" t="n">
-        <v>221692.2043826846</v>
+        <v>215623.7906368655</v>
       </c>
       <c r="P6" t="n">
-        <v>221692.2043826847</v>
+        <v>215623.7906368655</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.25450885989</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.25450885989</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.25450885989</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.25450885989</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500131</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="F4" t="n">
-        <v>527.348458950013</v>
+        <v>527.3484589500126</v>
       </c>
       <c r="G4" t="n">
-        <v>527.348458950013</v>
+        <v>527.3484589500126</v>
       </c>
       <c r="H4" t="n">
-        <v>527.348458950013</v>
+        <v>527.3484589500126</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545555</v>
@@ -26828,7 +26828,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.25450885989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571964</v>
+        <v>126.4891553571967</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.334170072354</v>
+        <v>286.3341700723536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045426</v>
+        <v>146.9388138045429</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.334170072354</v>
+        <v>286.3341700723536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.334170072354</v>
+        <v>286.3341700723536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686802</v>
+        <v>38.94066111686798</v>
       </c>
       <c r="J11" t="n">
-        <v>85.7282909400889</v>
+        <v>85.7282909400888</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P11" t="n">
-        <v>145.2490952449781</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721641</v>
+        <v>63.44870770721634</v>
       </c>
       <c r="S11" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745404</v>
+        <v>4.421574321745399</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609528</v>
+        <v>0.08080547018609519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042923</v>
+        <v>0.5404342266042916</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730929</v>
+        <v>5.219456872730922</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632922</v>
+        <v>51.05918278632916</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881679</v>
+        <v>87.2682759688167</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286402</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P12" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092686</v>
+        <v>68.98595496092678</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S12" t="n">
-        <v>10.03832872661919</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922977</v>
+        <v>0.03555488332922973</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.4530819012227523</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507751</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I13" t="n">
-        <v>13.62540844768061</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644862</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933437</v>
+        <v>52.63987906933431</v>
       </c>
       <c r="L13" t="n">
-        <v>67.3609219326991</v>
+        <v>67.36092193269903</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985387</v>
+        <v>71.0226474798538</v>
       </c>
       <c r="N13" t="n">
-        <v>69.3338876662055</v>
+        <v>69.33388766620541</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464877</v>
+        <v>64.0410672746487</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970456</v>
+        <v>54.7981964897045</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784342</v>
+        <v>37.93943083784338</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400154</v>
+        <v>7.895981860400145</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686802</v>
+        <v>38.94066111686798</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008888</v>
+        <v>85.7282909400888</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P14" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721641</v>
+        <v>63.44870770721634</v>
       </c>
       <c r="S14" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745403</v>
+        <v>4.421574321745399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609527</v>
+        <v>0.08080547018609519</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042922</v>
+        <v>0.5404342266042916</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730928</v>
+        <v>5.219456872730922</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632921</v>
+        <v>51.05918278632916</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881678</v>
+        <v>87.2682759688167</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286402</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P15" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092685</v>
+        <v>68.98595496092678</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057177</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S15" t="n">
-        <v>10.03832872661919</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922973</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227528</v>
+        <v>0.4530819012227523</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507751</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I16" t="n">
-        <v>13.62540844768061</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644862</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933436</v>
+        <v>52.63987906933431</v>
       </c>
       <c r="L16" t="n">
-        <v>67.3609219326991</v>
+        <v>67.36092193269903</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985387</v>
+        <v>71.0226474798538</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620548</v>
+        <v>69.33388766620541</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464875</v>
+        <v>64.0410672746487</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970455</v>
+        <v>54.7981964897045</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784342</v>
+        <v>37.93943083784338</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400153</v>
+        <v>7.895981860400145</v>
       </c>
       <c r="T16" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686804</v>
+        <v>38.94066111686798</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008891</v>
+        <v>85.7282909400888</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549031</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102185</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P17" t="n">
-        <v>145.2490952449781</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721643</v>
+        <v>63.44870770721634</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832061</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745405</v>
+        <v>4.421574321745399</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0808054701860953</v>
+        <v>0.08080547018609519</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042924</v>
+        <v>0.5404342266042916</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730929</v>
+        <v>5.219456872730922</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896358</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632922</v>
+        <v>51.05918278632916</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881681</v>
+        <v>87.2682759688167</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286402</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026664</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P18" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092688</v>
+        <v>68.98595496092678</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S18" t="n">
-        <v>10.0383287266192</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922978</v>
+        <v>0.03555488332922973</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.4530819012227523</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507752</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62540844768061</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644863</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933438</v>
+        <v>52.63987906933431</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269911</v>
+        <v>67.36092193269903</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985389</v>
+        <v>71.0226474798538</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620551</v>
+        <v>69.33388766620541</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464878</v>
+        <v>64.0410672746487</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970457</v>
+        <v>54.7981964897045</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784344</v>
+        <v>37.93943083784338</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952487</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400155</v>
+        <v>7.895981860400145</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851383</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686803</v>
+        <v>38.94066111686798</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008891</v>
+        <v>85.7282909400888</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549031</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P20" t="n">
-        <v>145.2490952449781</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721642</v>
+        <v>63.44870770721634</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832061</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745405</v>
+        <v>4.421574321745399</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609528</v>
+        <v>0.08080547018609519</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042923</v>
+        <v>0.5404342266042916</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730929</v>
+        <v>5.219456872730922</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632922</v>
+        <v>51.05918278632916</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881681</v>
+        <v>87.2682759688167</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286402</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026664</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P21" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092686</v>
+        <v>68.98595496092678</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661919</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922977</v>
+        <v>0.03555488332922973</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.4530819012227523</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507752</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I22" t="n">
-        <v>13.62540844768061</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644863</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933437</v>
+        <v>52.63987906933431</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269911</v>
+        <v>67.36092193269903</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985389</v>
+        <v>71.0226474798538</v>
       </c>
       <c r="N22" t="n">
-        <v>69.3338876662055</v>
+        <v>69.33388766620541</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464877</v>
+        <v>64.0410672746487</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970457</v>
+        <v>54.7981964897045</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784343</v>
+        <v>37.93943083784338</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952487</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400155</v>
+        <v>7.895981860400145</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547638</v>
+        <v>73.77900158547628</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N11" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512771</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611912</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.085322267439</v>
+        <v>99.08532226743888</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007136</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070364</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N12" t="n">
-        <v>207.130303504183</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514739</v>
+        <v>195.6533614635958</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345152</v>
+        <v>30.37038724345145</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301524</v>
+        <v>94.95094719301517</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868844</v>
+        <v>88.62619518868837</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459805</v>
+        <v>52.07675575459799</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547637</v>
+        <v>73.77900158547628</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N14" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O14" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611911</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743898</v>
+        <v>99.08532226743888</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007135</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070364</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628865</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O15" t="n">
-        <v>379.8491252296668</v>
+        <v>287.8148914417882</v>
       </c>
       <c r="P15" t="n">
-        <v>6.25930139277016</v>
+        <v>287.6875952514738</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345151</v>
+        <v>30.37038724345145</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301524</v>
+        <v>94.95094719301517</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868843</v>
+        <v>88.62619518868837</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459804</v>
+        <v>52.07675575459799</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547639</v>
+        <v>73.77900158547628</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526491</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512771</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611912</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743903</v>
+        <v>99.08532226743888</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070364</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L18" t="n">
-        <v>257.5946983499416</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628866</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296669</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P18" t="n">
-        <v>287.687595251474</v>
+        <v>195.6533614635954</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345152</v>
+        <v>30.37038724345145</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301525</v>
+        <v>94.95094719301517</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868846</v>
+        <v>88.62619518868837</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459806</v>
+        <v>52.07675575459799</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547639</v>
+        <v>73.77900158547628</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N20" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O20" t="n">
-        <v>320.8871281512771</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611912</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743901</v>
+        <v>99.08532226743888</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>50.31259146007137</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>71.5452487590871</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566218</v>
+        <v>229.3890347579888</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628866</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296669</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>287.6875952514738</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345152</v>
+        <v>30.37038724345145</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301525</v>
+        <v>94.95094719301517</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868844</v>
+        <v>88.62619518868837</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459805</v>
+        <v>52.07675575459799</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36682,7 +36682,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36919,10 +36919,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37165,10 +37165,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>998629.0953803434</v>
+        <v>1064336.147946724</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298025</v>
+        <v>405687.0519298022</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958494</v>
+        <v>11773978.35958493</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>111.1070543449885</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,14 +904,14 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>230.2038249569697</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>82.37559015745698</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,61 +1062,61 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>81.13435889727448</v>
       </c>
       <c r="T9" t="n">
-        <v>65.1306020652372</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>53.25291235684091</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>99.07094183176289</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
         <v>218.674275242386</v>
@@ -1429,10 +1429,10 @@
         <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>118.7001499689963</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>135.2757799528306</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>47.38698117337037</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>228.2062988327025</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>105.0817495738966</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
         <v>171.5352284535379</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>180.9082143817203</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>141.9091215224088</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>21.75631204427207</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.6035055920714</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772187</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T15" t="n">
         <v>197.9863995095175</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>47.38698117337037</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>193.8209438199394</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.2926691378088</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393334</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>204.3940236896667</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>90.96987219947809</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.6035055920714</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>76.36857062854568</v>
+        <v>135.2757799528311</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9058271976456</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>51.99587734036208</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>254.3342481243825</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>123.4828115886949</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.569735475989692</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>82.14986849144493</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.6035055920714</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772187</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
         <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
-        <v>140.7198448751459</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>67.38524054789497</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2283,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.222612413851</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>228.2062988327028</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>131.2830259545905</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>340.0237825764893</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>101.717706569126</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>134.8122206876834</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>144.8604776230164</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>72.497054795987</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>107.852413546446</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>236.7139500600953</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.25641376481788</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>334.5817096732201</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,7 +3125,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3246,16 +3246,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>117.586430972754</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>123.0607915108179</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>142.567753130208</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>145.2578297840783</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>24.25641376481833</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>284.5615160058692</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>47.40419526769168</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6993815150877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>221.0021786982958</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>86.57993487254602</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>147.445065564638</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364034</v>
+        <v>10.70611463921582</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678.4104631380844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C3" t="n">
-        <v>678.4104631380844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D3" t="n">
-        <v>529.4760534768332</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2385984713777</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>678.4104631380844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>678.4104631380844</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>678.4104631380844</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>678.4104631380844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>678.4104631380844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>678.4104631380844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277.6959718698396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>103.2429425887126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>103.2429425887126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>103.2429425887126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>103.2429425887126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>103.2429425887126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>277.6959718698396</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>122.6530896684844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6530896684844</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4889,16 +4889,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="T9" t="n">
-        <v>898.2686685760532</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="U9" t="n">
-        <v>670.0450503124422</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="V9" t="n">
-        <v>434.8929420806995</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>780.9337281874871</v>
       </c>
     </row>
     <row r="10">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>560.7369787054674</v>
+        <v>1002.895744758783</v>
       </c>
       <c r="C11" t="n">
-        <v>560.7369787054674</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="D11" t="n">
-        <v>460.6653202895453</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="E11" t="n">
-        <v>460.6653202895453</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="F11" t="n">
-        <v>460.6653202895453</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="G11" t="n">
-        <v>42.18787671600102</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600102</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856228</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953287</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L11" t="n">
         <v>683.321988080341</v>
@@ -5059,7 +5059,7 @@
         <v>1777.842707170707</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q11" t="n">
         <v>2109.393835800051</v>
@@ -5068,25 +5068,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.393835800051</v>
+        <v>1921.511879802148</v>
       </c>
       <c r="T11" t="n">
-        <v>1888.510729494611</v>
+        <v>1700.628773496707</v>
       </c>
       <c r="U11" t="n">
-        <v>1634.707853294964</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="V11" t="n">
-        <v>1303.644965951393</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="W11" t="n">
-        <v>950.8763106812792</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="X11" t="n">
-        <v>950.8763106812792</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="Y11" t="n">
-        <v>560.7369787054674</v>
+        <v>1056.686565321249</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>671.3473286369498</v>
+        <v>644.7119120466593</v>
       </c>
       <c r="C12" t="n">
-        <v>496.8942993558228</v>
+        <v>470.2588827655323</v>
       </c>
       <c r="D12" t="n">
-        <v>347.9598896945715</v>
+        <v>321.3244731042811</v>
       </c>
       <c r="E12" t="n">
-        <v>188.7224346891161</v>
+        <v>162.0870180988256</v>
       </c>
       <c r="F12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J12" t="n">
-        <v>42.18787671600102</v>
+        <v>91.99734226147164</v>
       </c>
       <c r="K12" t="n">
-        <v>253.9410299829669</v>
+        <v>303.7504955284376</v>
       </c>
       <c r="L12" t="n">
-        <v>600.0736727994082</v>
+        <v>649.8831383448789</v>
       </c>
       <c r="M12" t="n">
-        <v>1055.973362584464</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N12" t="n">
-        <v>1539.646373973721</v>
+        <v>1589.455839519192</v>
       </c>
       <c r="O12" t="n">
-        <v>1915.697007951091</v>
+        <v>1965.506473496562</v>
       </c>
       <c r="P12" t="n">
         <v>2109.393835800051</v>
@@ -5147,25 +5147,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S12" t="n">
-        <v>1972.751633827495</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T12" t="n">
-        <v>1972.751633827495</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="U12" t="n">
-        <v>1744.563929587449</v>
+        <v>1717.928512997158</v>
       </c>
       <c r="V12" t="n">
-        <v>1509.411821355706</v>
+        <v>1482.776404765416</v>
       </c>
       <c r="W12" t="n">
-        <v>1255.174464627504</v>
+        <v>1228.539048037214</v>
       </c>
       <c r="X12" t="n">
-        <v>1047.322964421972</v>
+        <v>1020.687547831681</v>
       </c>
       <c r="Y12" t="n">
-        <v>839.5626656570178</v>
+        <v>812.9272490667274</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="C13" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="D13" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="E13" t="n">
-        <v>42.18787671600102</v>
+        <v>90.05351426485998</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701796</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L13" t="n">
         <v>166.255997808103</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053804</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503601</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871616</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U13" t="n">
-        <v>296.8723649218879</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="V13" t="n">
-        <v>42.18787671600102</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="W13" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="X13" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472531</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1151.062313995753</v>
+        <v>1352.17646965548</v>
       </c>
       <c r="C14" t="n">
-        <v>1151.062313995753</v>
+        <v>1352.17646965548</v>
       </c>
       <c r="D14" t="n">
-        <v>1151.062313995753</v>
+        <v>1352.17646965548</v>
       </c>
       <c r="E14" t="n">
-        <v>1151.062313995753</v>
+        <v>966.3882170572355</v>
       </c>
       <c r="F14" t="n">
-        <v>740.0764092061459</v>
+        <v>966.3882170572355</v>
       </c>
       <c r="G14" t="n">
-        <v>321.5989656326016</v>
+        <v>547.9107734836912</v>
       </c>
       <c r="H14" t="n">
         <v>215.4557842448272</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953283</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803406</v>
+        <v>683.3219880803409</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.88319261382</v>
+        <v>1075.883192613821</v>
       </c>
       <c r="N14" t="n">
         <v>1460.164450300943</v>
@@ -5305,25 +5305,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>2109.393835800051</v>
+        <v>1921.511879802147</v>
       </c>
       <c r="T14" t="n">
-        <v>2109.393835800051</v>
+        <v>1738.776309719601</v>
       </c>
       <c r="U14" t="n">
-        <v>1855.590959600404</v>
+        <v>1738.776309719601</v>
       </c>
       <c r="V14" t="n">
-        <v>1524.528072256833</v>
+        <v>1738.776309719601</v>
       </c>
       <c r="W14" t="n">
-        <v>1524.528072256833</v>
+        <v>1738.776309719601</v>
       </c>
       <c r="X14" t="n">
-        <v>1151.062313995753</v>
+        <v>1738.776309719601</v>
       </c>
       <c r="Y14" t="n">
-        <v>1151.062313995753</v>
+        <v>1738.776309719601</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>630.5098759087952</v>
+        <v>652.485948680787</v>
       </c>
       <c r="C15" t="n">
-        <v>456.0568466276681</v>
+        <v>478.03291939966</v>
       </c>
       <c r="D15" t="n">
         <v>456.0568466276681</v>
       </c>
       <c r="E15" t="n">
-        <v>296.8193916222126</v>
+        <v>296.8193916222125</v>
       </c>
       <c r="F15" t="n">
         <v>150.2848336490975</v>
@@ -5351,58 +5351,58 @@
         <v>150.2848336490975</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K15" t="n">
-        <v>253.9410299829669</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L15" t="n">
-        <v>600.0736727994082</v>
+        <v>371.2691274247618</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.973362584464</v>
+        <v>827.1688172098172</v>
       </c>
       <c r="N15" t="n">
-        <v>1539.646373973721</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O15" t="n">
-        <v>1824.583116501091</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962384</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T15" t="n">
-        <v>1678.853686831558</v>
+        <v>1746.129955106378</v>
       </c>
       <c r="U15" t="n">
-        <v>1678.853686831558</v>
+        <v>1517.942250866332</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.701578599816</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="W15" t="n">
-        <v>1189.464221871614</v>
+        <v>1028.552785906388</v>
       </c>
       <c r="X15" t="n">
-        <v>981.6127216660811</v>
+        <v>820.7012857008551</v>
       </c>
       <c r="Y15" t="n">
-        <v>773.8524229011273</v>
+        <v>820.7012857008551</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="C16" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="D16" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="E16" t="n">
-        <v>42.18787671600101</v>
+        <v>90.05351426485998</v>
       </c>
       <c r="F16" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G16" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701795</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L16" t="n">
         <v>166.255997808103</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053804</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503601</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871616</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U16" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="V16" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="W16" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="X16" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472531</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472531</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>818.9310188962959</v>
+        <v>1257.439477677397</v>
       </c>
       <c r="C17" t="n">
-        <v>818.9310188962959</v>
+        <v>1257.439477677397</v>
       </c>
       <c r="D17" t="n">
-        <v>460.6653202895453</v>
+        <v>1257.439477677397</v>
       </c>
       <c r="E17" t="n">
-        <v>460.6653202895453</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F17" t="n">
         <v>460.6653202895453</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J17" t="n">
         <v>115.2290882856226</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953283</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803406</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.88319261382</v>
+        <v>1075.883192613821</v>
       </c>
       <c r="N17" t="n">
         <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q17" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U17" t="n">
-        <v>1768.297615929764</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V17" t="n">
-        <v>1561.839006142222</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W17" t="n">
-        <v>1209.070350872108</v>
+        <v>2017.505076002599</v>
       </c>
       <c r="X17" t="n">
-        <v>1209.070350872108</v>
+        <v>1644.039317741519</v>
       </c>
       <c r="Y17" t="n">
-        <v>818.9310188962959</v>
+        <v>1644.039317741519</v>
       </c>
     </row>
     <row r="18">
@@ -5579,64 +5579,64 @@
         <v>347.9598896945715</v>
       </c>
       <c r="E18" t="n">
-        <v>188.722434689116</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F18" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600101</v>
+        <v>91.99734226147166</v>
       </c>
       <c r="K18" t="n">
-        <v>253.9410299829669</v>
+        <v>303.7504955284377</v>
       </c>
       <c r="L18" t="n">
-        <v>600.0736727994082</v>
+        <v>649.8831383448791</v>
       </c>
       <c r="M18" t="n">
-        <v>1055.973362584464</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N18" t="n">
-        <v>1539.646373973721</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O18" t="n">
-        <v>1915.697007951091</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P18" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q18" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S18" t="n">
-        <v>1964.977597193367</v>
+        <v>1972.751633827495</v>
       </c>
       <c r="T18" t="n">
-        <v>1764.991335062541</v>
+        <v>1972.751633827495</v>
       </c>
       <c r="U18" t="n">
-        <v>1536.803630822495</v>
+        <v>1744.563929587449</v>
       </c>
       <c r="V18" t="n">
-        <v>1301.651522590752</v>
+        <v>1509.411821355706</v>
       </c>
       <c r="W18" t="n">
-        <v>1047.414165862551</v>
+        <v>1255.174464627504</v>
       </c>
       <c r="X18" t="n">
-        <v>839.5626656570178</v>
+        <v>1047.322964421972</v>
       </c>
       <c r="Y18" t="n">
         <v>839.5626656570178</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="C19" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="D19" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600101</v>
+        <v>185.4455196246654</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600101</v>
+        <v>185.4455196246654</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600101</v>
+        <v>185.4455196246654</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701795</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L19" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053804</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503601</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871616</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T19" t="n">
-        <v>299.0911576497207</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U19" t="n">
-        <v>42.18787671600101</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="V19" t="n">
-        <v>42.18787671600101</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="W19" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="X19" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.18787671600101</v>
+        <v>237.9666078472533</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>829.6278372299571</v>
+        <v>1332.654663760118</v>
       </c>
       <c r="C20" t="n">
-        <v>460.6653202895453</v>
+        <v>963.6921468197063</v>
       </c>
       <c r="D20" t="n">
-        <v>460.6653202895453</v>
+        <v>963.6921468197063</v>
       </c>
       <c r="E20" t="n">
-        <v>460.6653202895453</v>
+        <v>577.903894221462</v>
       </c>
       <c r="F20" t="n">
-        <v>460.6653202895453</v>
+        <v>166.9179894318544</v>
       </c>
       <c r="G20" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856224</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953283</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803407</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.88319261382</v>
+        <v>1075.883192613821</v>
       </c>
       <c r="N20" t="n">
         <v>1460.164450300943</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q20" t="n">
         <v>2109.393835800051</v>
@@ -5782,22 +5782,22 @@
         <v>2109.393835800051</v>
       </c>
       <c r="T20" t="n">
-        <v>1888.51072949461</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U20" t="n">
-        <v>1886.925138104722</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V20" t="n">
-        <v>1555.862250761151</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W20" t="n">
-        <v>1203.093595491037</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="X20" t="n">
-        <v>829.6278372299571</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Y20" t="n">
-        <v>829.6278372299571</v>
+        <v>1719.25450382424</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>671.3473286369498</v>
+        <v>612.9409869359017</v>
       </c>
       <c r="C21" t="n">
-        <v>496.8942993558228</v>
+        <v>612.9409869359017</v>
       </c>
       <c r="D21" t="n">
-        <v>347.9598896945715</v>
+        <v>464.0065772746505</v>
       </c>
       <c r="E21" t="n">
-        <v>188.722434689116</v>
+        <v>304.769122269195</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600101</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600101</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600101</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K21" t="n">
-        <v>253.9410299829669</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L21" t="n">
-        <v>600.0736727994082</v>
+        <v>600.0736727994084</v>
       </c>
       <c r="M21" t="n">
-        <v>827.1688172098171</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N21" t="n">
-        <v>1310.841828599075</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O21" t="n">
-        <v>1686.892462576445</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P21" t="n">
-        <v>1971.703181875404</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q21" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S21" t="n">
-        <v>1878.839948962384</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T21" t="n">
-        <v>1678.853686831558</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U21" t="n">
-        <v>1536.712429381916</v>
+        <v>1517.942250866333</v>
       </c>
       <c r="V21" t="n">
-        <v>1301.560321150173</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="W21" t="n">
-        <v>1047.322964421972</v>
+        <v>1028.552785906388</v>
       </c>
       <c r="X21" t="n">
-        <v>1047.322964421972</v>
+        <v>820.7012857008556</v>
       </c>
       <c r="Y21" t="n">
-        <v>839.5626656570178</v>
+        <v>612.9409869359017</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.370415671665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C22" t="n">
-        <v>260.370415671665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D22" t="n">
-        <v>110.2537762593293</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600101</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701795</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L22" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053804</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503601</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871616</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q22" t="n">
-        <v>478.6740683752732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R22" t="n">
-        <v>478.6740683752732</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S22" t="n">
-        <v>260.370415671665</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T22" t="n">
-        <v>260.370415671665</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U22" t="n">
-        <v>260.370415671665</v>
+        <v>296.8723649218879</v>
       </c>
       <c r="V22" t="n">
-        <v>260.370415671665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="W22" t="n">
-        <v>260.370415671665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X22" t="n">
-        <v>260.370415671665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.370415671665</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447094</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C23" t="n">
-        <v>1194.175505447094</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.175505447094</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>808.38725284885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>397.4013480592425</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6022,19 +6022,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511216</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1704.527073573122</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C26" t="n">
-        <v>1568.353113282533</v>
+        <v>945.4252246568983</v>
       </c>
       <c r="D26" t="n">
-        <v>1210.087414675782</v>
+        <v>945.4252246568983</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>945.4252246568983</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>945.4252246568983</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>527.4614165550852</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>200.266696591088</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,13 +6250,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U26" t="n">
         <v>2388.358616186807</v>
@@ -6271,7 +6271,7 @@
         <v>1704.527073573122</v>
       </c>
       <c r="Y26" t="n">
-        <v>1704.527073573122</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6423,13 +6423,13 @@
         <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>956.12204299056</v>
       </c>
       <c r="E29" t="n">
         <v>882.8926947117852</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6496,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="30">
@@ -6524,10 +6524,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
@@ -6536,7 +6536,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>274.7355609638946</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W31" t="n">
-        <v>274.7355609638946</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1208.982837814967</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W32" t="n">
-        <v>2359.18776811598</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X32" t="n">
-        <v>1985.7220098549</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y32" t="n">
-        <v>1595.582677879088</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6894,16 +6894,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1540.921096014691</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C35" t="n">
-        <v>1422.14692331494</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.14692331494</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>1007.196524520692</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>596.2106197310845</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>178.2468116292714</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>178.2468116292714</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628376</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284805</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W35" t="n">
-        <v>1540.921096014691</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X35" t="n">
-        <v>1540.921096014691</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y35" t="n">
-        <v>1540.921096014691</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>369.8327295799423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>369.8327295799423</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>369.8327295799423</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.68094731003</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2418.885877611043</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>2418.885877611043</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X38" t="n">
-        <v>2045.420119349963</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y38" t="n">
-        <v>1655.280787374151</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7365,16 +7365,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W40" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
         <v>53.94298182036445</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1865.381229508782</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C41" t="n">
-        <v>1496.41871256837</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D41" t="n">
-        <v>1138.15301396162</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E41" t="n">
-        <v>752.3647613633752</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>341.3788565737677</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036444</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548715</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548715</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X41" t="n">
-        <v>2642.120401548715</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y41" t="n">
-        <v>2251.981069572903</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7502,13 +7502,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7517,22 +7517,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>281.9325327183818</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1272.344242153657</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.680947310029</v>
+        <v>1272.344242153657</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>1272.344242153657</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>886.5559895554131</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>886.5559895554131</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>468.5921814536</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>141.3974614896028</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548715</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548715</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287635</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1272.344242153657</v>
       </c>
     </row>
     <row r="45">
@@ -7709,43 +7709,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036444</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>75.77844388033753</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>226.4285348520592</v>
+        <v>176.1159433919878</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.99581912509474</v>
+        <v>70.9958191250947</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033753</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>139.7246429048263</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>301.8280854888511</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.99581912509474</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033753</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>197.9140804848496</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>226.4285348520587</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509474</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033753</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>234.5893613513671</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520591</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509468</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>174.9274946967228</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,13 +22603,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22631,25 +22631,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>46.84073538823441</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>89.05767434983314</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22722,7 +22722,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>185.0989125581653</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>29.85985407903948</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22928,7 +22928,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22950,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>181.5942737834322</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>249.0858643776907</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>90.54881220656334</v>
       </c>
       <c r="T9" t="n">
-        <v>135.0341266295844</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>329.4809293066397</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6120997889201</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23278,7 +23278,7 @@
         <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393334</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>26.36906242438758</v>
       </c>
       <c r="G12" t="n">
         <v>136.8030829366063</v>
@@ -23357,7 +23357,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245153</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.6035055920714</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S12" t="n">
-        <v>26.36906242438801</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.9863995095175</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>98.03406684956087</v>
       </c>
       <c r="G13" t="n">
         <v>167.537897457236</v>
@@ -23439,7 +23439,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022419</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.222612413851</v>
+        <v>48.22261241385098</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23472,13 +23472,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
-        <v>58.08801696553994</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0486897725787</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393334</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>37.76606086066565</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.62406212745853</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>125.6887535203667</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245153</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>98.03406684956087</v>
       </c>
       <c r="G16" t="n">
         <v>167.537897457236</v>
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022419</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.222612413851</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23709,7 +23709,7 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>92.47337197830296</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S17" t="n">
         <v>186.0031364379248</v>
@@ -23788,19 +23788,19 @@
         <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
-        <v>123.3582347804682</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>258.2710965179349</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23831,7 +23831,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245153</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S18" t="n">
-        <v>85.27627174867297</v>
+        <v>26.36906242438752</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>93.42517068256916</v>
       </c>
       <c r="G19" t="n">
         <v>167.537897457236</v>
@@ -23910,10 +23910,10 @@
         <v>158.1988625129318</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022419</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.222612413851</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23943,16 +23943,16 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>31.9600676738599</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>290.809857549114</v>
       </c>
       <c r="H20" t="n">
         <v>329.1304393464753</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393334</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S20" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>249.6951119616607</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>62.91934390193894</v>
       </c>
       <c r="G21" t="n">
         <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245153</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>85.18598232249965</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>79.0487220986742</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022419</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
         <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>58.08801696553959</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>233.989865816417</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>73.76038744430571</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24262,19 +24262,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>44.71625607744319</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24420,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>230.4606710833241</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>7.070838621844899</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>144.2707130727115</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>309.4333152762748</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>71.97956663549125</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24888,16 +24888,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>15.42369326373267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>30.22198880999383</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,13 +24973,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>14.65925904419294</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>89.56002855569147</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>247.6864607982536</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>28.87052473404337</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25362,19 +25362,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>82.46735232787626</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>261.6182159576331</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>303.4958447053166</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25605,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>129.2226540149258</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>322.3269054107774</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>50.80735538553398</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,19 +25839,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>35.43826180874035</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>144.2707130727118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>65.35138137231523</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401877</v>
+        <v>241.4315286846122</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>432136.8384716082</v>
+        <v>432136.8384716081</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>432136.8384716081</v>
+        <v>432136.8384716082</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636944.0852419096</v>
+        <v>636944.0852419094</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>636944.0852419096</v>
+        <v>636944.0852419094</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636944.0852419094</v>
+        <v>636944.0852419096</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>636944.0852419095</v>
+        <v>636944.0852419096</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="16">
@@ -26325,34 +26325,34 @@
         <v>247828.6760862711</v>
       </c>
       <c r="F2" t="n">
-        <v>247828.676086271</v>
+        <v>247828.6760862711</v>
       </c>
       <c r="G2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.6760862712</v>
       </c>
       <c r="H2" t="n">
         <v>247828.6760862711</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="J2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="K2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="L2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="O2" t="n">
         <v>289152.6100157575</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289152.6100157573</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157574</v>
       </c>
       <c r="P2" t="n">
         <v>289152.6100157574</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134254</v>
+        <v>287351.7100134256</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116923</v>
+        <v>134288.7015116921</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.6205187108</v>
+        <v>71355.62051871086</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730637</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730637</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730637</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730637</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7977.271975001711</v>
+        <v>18973.48153303813</v>
       </c>
       <c r="C6" t="n">
-        <v>88746.70350654935</v>
+        <v>99742.91306458581</v>
       </c>
       <c r="D6" t="n">
-        <v>88746.70350654944</v>
+        <v>99742.91306458587</v>
       </c>
       <c r="E6" t="n">
-        <v>-102969.9373697076</v>
+        <v>-95648.7879716435</v>
       </c>
       <c r="F6" t="n">
-        <v>184381.7726437178</v>
+        <v>191702.922041782</v>
       </c>
       <c r="G6" t="n">
-        <v>184381.7726437178</v>
+        <v>191702.9220417821</v>
       </c>
       <c r="H6" t="n">
-        <v>184381.7726437179</v>
+        <v>191702.922041782</v>
       </c>
       <c r="I6" t="n">
-        <v>81335.08912517334</v>
+        <v>86796.66149641067</v>
       </c>
       <c r="J6" t="n">
-        <v>152563.8480377592</v>
+        <v>158025.4204089965</v>
       </c>
       <c r="K6" t="n">
-        <v>215623.7906368655</v>
+        <v>221085.363008103</v>
       </c>
       <c r="L6" t="n">
-        <v>215623.7906368656</v>
+        <v>221085.3630081028</v>
       </c>
       <c r="M6" t="n">
-        <v>144268.1701181546</v>
+        <v>149729.7424893919</v>
       </c>
       <c r="N6" t="n">
-        <v>215623.7906368656</v>
+        <v>221085.3630081028</v>
       </c>
       <c r="O6" t="n">
-        <v>215623.7906368655</v>
+        <v>221085.3630081029</v>
       </c>
       <c r="P6" t="n">
-        <v>215623.7906368655</v>
+        <v>221085.3630081028</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.25450885989</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
-        <v>251.25450885989</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="G3" t="n">
-        <v>251.25450885989</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="H3" t="n">
-        <v>251.25450885989</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,31 +26798,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>527.3484589500129</v>
+      </c>
+      <c r="F4" t="n">
         <v>527.3484589500127</v>
       </c>
-      <c r="F4" t="n">
-        <v>527.3484589500126</v>
-      </c>
       <c r="G4" t="n">
-        <v>527.3484589500126</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500126</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.25450885989</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571967</v>
+        <v>126.4891553571965</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723536</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045429</v>
+        <v>146.9388138045427</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723536</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723536</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H11" t="n">
         <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686798</v>
+        <v>38.940661116868</v>
       </c>
       <c r="J11" t="n">
-        <v>85.7282909400888</v>
+        <v>85.72829094008885</v>
       </c>
       <c r="K11" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601775</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372555</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102182</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P11" t="n">
-        <v>145.2490952449779</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
         <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721634</v>
+        <v>63.44870770721638</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832058</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745399</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609519</v>
+        <v>0.08080547018609524</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042916</v>
+        <v>0.540434226604292</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730922</v>
+        <v>5.219456872730926</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896355</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632916</v>
+        <v>51.05918278632919</v>
       </c>
       <c r="K12" t="n">
-        <v>87.2682759688167</v>
+        <v>87.26827596881674</v>
       </c>
       <c r="L12" t="n">
         <v>117.3429666142345</v>
       </c>
       <c r="M12" t="n">
-        <v>136.93370732864</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973816</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P12" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092678</v>
+        <v>68.98595496092682</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057173</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S12" t="n">
-        <v>10.03832872661918</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304141</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922973</v>
+        <v>0.03555488332922975</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227523</v>
+        <v>0.4530819012227526</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507747</v>
+        <v>4.028309994507749</v>
       </c>
       <c r="I13" t="n">
-        <v>13.62540844768059</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644859</v>
+        <v>32.03289041644861</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933431</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269903</v>
+        <v>67.36092193269907</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0226474798538</v>
+        <v>71.02264747985384</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620541</v>
+        <v>69.33388766620546</v>
       </c>
       <c r="O13" t="n">
-        <v>64.0410672746487</v>
+        <v>64.04106727464873</v>
       </c>
       <c r="P13" t="n">
-        <v>54.7981964897045</v>
+        <v>54.79819648970453</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784338</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952484</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400145</v>
+        <v>7.895981860400149</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851379</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H14" t="n">
         <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686798</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J14" t="n">
-        <v>85.7282909400888</v>
+        <v>85.72829094008885</v>
       </c>
       <c r="K14" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601775</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372555</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102182</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P14" t="n">
-        <v>145.2490952449779</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721634</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832058</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745399</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609519</v>
+        <v>0.08080547018609524</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042916</v>
+        <v>0.540434226604292</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730922</v>
+        <v>5.219456872730926</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896355</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632916</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K15" t="n">
-        <v>87.2682759688167</v>
+        <v>87.26827596881675</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M15" t="n">
-        <v>136.93370732864</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973816</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092678</v>
+        <v>68.98595496092682</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057173</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S15" t="n">
-        <v>10.03832872661918</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304141</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922973</v>
+        <v>0.03555488332922975</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227523</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507747</v>
+        <v>4.028309994507749</v>
       </c>
       <c r="I16" t="n">
-        <v>13.62540844768059</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644859</v>
+        <v>32.03289041644861</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933431</v>
+        <v>52.63987906933434</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269903</v>
+        <v>67.36092193269907</v>
       </c>
       <c r="M16" t="n">
-        <v>71.0226474798538</v>
+        <v>71.02264747985384</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620541</v>
+        <v>69.33388766620546</v>
       </c>
       <c r="O16" t="n">
-        <v>64.0410672746487</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P16" t="n">
-        <v>54.7981964897045</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784338</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952484</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400145</v>
+        <v>7.89598186040015</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851379</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686798</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J17" t="n">
-        <v>85.7282909400888</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601775</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372555</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102182</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P17" t="n">
-        <v>145.2490952449779</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721634</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832058</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745399</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609519</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042916</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730922</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896355</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632916</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K18" t="n">
-        <v>87.2682759688167</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M18" t="n">
-        <v>136.93370732864</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973816</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092678</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057173</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S18" t="n">
-        <v>10.03832872661918</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922973</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227523</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507747</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62540844768059</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644859</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933431</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269903</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M19" t="n">
-        <v>71.0226474798538</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620541</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O19" t="n">
-        <v>64.0410672746487</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P19" t="n">
-        <v>54.7981964897045</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784338</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952484</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400145</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851379</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686798</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J20" t="n">
-        <v>85.7282909400888</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601775</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372555</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102182</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P20" t="n">
-        <v>145.2490952449779</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721634</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832058</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745399</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609519</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042916</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730922</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896355</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632916</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K21" t="n">
-        <v>87.2682759688167</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M21" t="n">
-        <v>136.93370732864</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973816</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P21" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092678</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057173</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661918</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T21" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922973</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227523</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507747</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I22" t="n">
-        <v>13.62540844768059</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644859</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933431</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269903</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M22" t="n">
-        <v>71.0226474798538</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620541</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O22" t="n">
-        <v>64.0410672746487</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P22" t="n">
-        <v>54.7981964897045</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784338</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952484</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400145</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851379</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547628</v>
+        <v>73.77900158547634</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784906</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L11" t="n">
         <v>341.2911650353661</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526488</v>
+        <v>388.1628865526489</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P11" t="n">
-        <v>235.814807661191</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743888</v>
+        <v>99.08532226743894</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>50.31259146007133</v>
       </c>
       <c r="K12" t="n">
         <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378194</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566216</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628864</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296667</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>195.6533614635958</v>
+        <v>145.3407700035245</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345145</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301517</v>
+        <v>94.95094719301521</v>
       </c>
       <c r="M13" t="n">
         <v>110.6065244416944</v>
@@ -35582,10 +35582,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868837</v>
+        <v>88.6261951886884</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459799</v>
+        <v>52.07675575459802</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547628</v>
+        <v>73.77900158547634</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784906</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O14" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P14" t="n">
-        <v>235.814807661191</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743888</v>
+        <v>99.08532226743895</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>213.8920740070363</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378194</v>
+        <v>118.5132297391867</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566216</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628864</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8148914417882</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6875952514738</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345145</v>
+        <v>30.37038724345149</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301517</v>
+        <v>94.95094719301521</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
@@ -35819,10 +35819,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868837</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459799</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547628</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784906</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P17" t="n">
-        <v>235.814807661191</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743888</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>50.31259146007134</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070363</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378194</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566216</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628864</v>
+        <v>207.1303035041826</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296667</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>195.6533614635954</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345145</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301517</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868837</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459799</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547628</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784906</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N20" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O20" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P20" t="n">
-        <v>235.814807661191</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743888</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>213.8920740070363</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378194</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M21" t="n">
-        <v>229.3890347579888</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628864</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296667</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514738</v>
+        <v>195.6533614635958</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345145</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301517</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M22" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868837</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459799</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
